--- a/italent/documents/quality/ProjectRisicos.xlsx
+++ b/italent/documents/quality/ProjectRisicos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVD\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkspaceITalent\italent\documents\quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -824,14 +824,14 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.140625" customWidth="1"/>
-    <col min="4" max="4" width="51.28515625" customWidth="1"/>
+    <col min="4" max="4" width="60.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
@@ -1062,7 +1062,7 @@
   <dimension ref="D5:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
